--- a/old_database/crypto/rnaSample/rnaSample_0711_5_0718_7.xlsx
+++ b/old_database/crypto/rnaSample/rnaSample_0711_5_0718_7.xlsx
@@ -49,7 +49,7 @@
     <t>04.10.12</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_0711_5_0718_7</t>
   </si>
 </sst>
 </file>

--- a/old_database/crypto/rnaSample/rnaSample_0711_5_0718_7.xlsx
+++ b/old_database/crypto/rnaSample/rnaSample_0711_5_0718_7.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="14">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">02.08.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.GISH</t>
   </si>
   <si>
     <t xml:space="preserve">Retrofitted_0711_5_0718_7</t>
@@ -182,15 +185,17 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -230,13 +235,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -253,13 +258,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -276,13 +281,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -299,13 +304,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -322,13 +327,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -345,13 +350,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -368,18 +373,18 @@
         <v>8</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -388,21 +393,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -411,21 +416,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
@@ -434,21 +439,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
@@ -457,21 +462,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>9</v>
@@ -480,21 +485,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>9</v>
@@ -503,21 +508,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>9</v>
@@ -526,21 +531,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>9</v>
@@ -549,21 +554,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>9</v>
@@ -572,21 +577,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>9</v>
@@ -595,21 +600,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>9</v>
@@ -618,21 +623,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>9</v>
@@ -641,21 +646,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>9</v>
@@ -664,21 +669,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>9</v>
@@ -687,21 +692,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>9</v>
@@ -710,16 +715,16 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -736,13 +741,13 @@
         <v>8</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,13 +764,13 @@
         <v>8</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,13 +787,13 @@
         <v>8</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,13 +810,13 @@
         <v>8</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,13 +833,13 @@
         <v>8</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>27</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,13 +856,13 @@
         <v>8</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>28</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -874,18 +879,18 @@
         <v>8</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>29</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>9</v>
@@ -894,21 +899,21 @@
         <v>30</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>30</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>9</v>
@@ -917,21 +922,21 @@
         <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>31</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>9</v>
@@ -940,21 +945,21 @@
         <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>32</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>9</v>
@@ -963,21 +968,21 @@
         <v>33</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>33</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>9</v>
@@ -986,21 +991,21 @@
         <v>34</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>34</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>9</v>
@@ -1009,21 +1014,21 @@
         <v>35</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>35</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>9</v>
@@ -1032,21 +1037,21 @@
         <v>36</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>36</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>9</v>
@@ -1055,21 +1060,21 @@
         <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>37</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>9</v>
@@ -1078,21 +1083,21 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>38</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>9</v>
@@ -1101,21 +1106,21 @@
         <v>39</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>39</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>9</v>
@@ -1124,21 +1129,21 @@
         <v>40</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>40</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>9</v>
@@ -1147,21 +1152,21 @@
         <v>41</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>41</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>9</v>
@@ -1170,21 +1175,21 @@
         <v>42</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>42</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>9</v>
@@ -1193,21 +1198,21 @@
         <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>43</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>9</v>
@@ -1216,16 +1221,16 @@
         <v>44</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>44</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
